--- a/일괄업로드예시.xlsx
+++ b/일괄업로드예시.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\PLAYGROUND\hkdevstudio\Cople\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77452607-4E98-4AC5-84B4-3C6FF6774CB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CD9BE7-DC29-42E7-9733-A940F8E50642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5484" yWindow="1728" windowWidth="17280" windowHeight="11136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="1824" windowWidth="17280" windowHeight="11136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
   <si>
     <t>날짜</t>
   </si>
@@ -67,9 +67,6 @@
     <t>2020-10-11 00:00:00.0</t>
   </si>
   <si>
-    <t>zzzzx03@nate.com</t>
-  </si>
-  <si>
     <t>10,596.16294</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>zzxz49@naver.com</t>
   </si>
   <si>
     <t>2,702.48518</t>
@@ -119,13 +113,176 @@
   <si>
     <t>단톡방</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdf01@nate.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdf02@nate.com</t>
+  </si>
+  <si>
+    <t>asdf03@nate.com</t>
+  </si>
+  <si>
+    <t>asdf04@nate.com</t>
+  </si>
+  <si>
+    <t>asdf05@nate.com</t>
+  </si>
+  <si>
+    <t>asdf06@nate.com</t>
+  </si>
+  <si>
+    <t>asdf07@nate.com</t>
+  </si>
+  <si>
+    <t>asdf08@nate.com</t>
+  </si>
+  <si>
+    <t>asdf09@nate.com</t>
+  </si>
+  <si>
+    <t>asdf10@nate.com</t>
+  </si>
+  <si>
+    <t>asdf11@nate.com</t>
+  </si>
+  <si>
+    <t>asdf12@nate.com</t>
+  </si>
+  <si>
+    <t>asdf13@nate.com</t>
+  </si>
+  <si>
+    <t>asdf14@nate.com</t>
+  </si>
+  <si>
+    <t>asdf15@nate.com</t>
+  </si>
+  <si>
+    <t>asdf16@nate.com</t>
+  </si>
+  <si>
+    <t>asdf17@nate.com</t>
+  </si>
+  <si>
+    <t>asdf18@nate.com</t>
+  </si>
+  <si>
+    <t>asdf19@nate.com</t>
+  </si>
+  <si>
+    <t>asdf20@nate.com</t>
+  </si>
+  <si>
+    <t>asdf21@nate.com</t>
+  </si>
+  <si>
+    <t>asdf22@nate.com</t>
+  </si>
+  <si>
+    <t>asdf23@nate.com</t>
+  </si>
+  <si>
+    <t>asdf24@nate.com</t>
+  </si>
+  <si>
+    <t>asdf25@nate.com</t>
+  </si>
+  <si>
+    <t>asdf26@nate.com</t>
+  </si>
+  <si>
+    <t>asdf27@nate.com</t>
+  </si>
+  <si>
+    <t>asdf28@nate.com</t>
+  </si>
+  <si>
+    <t>asdf29@nate.com</t>
+  </si>
+  <si>
+    <t>asdf30@nate.com</t>
+  </si>
+  <si>
+    <t>asdf31@nate.com</t>
+  </si>
+  <si>
+    <t>asdf32@nate.com</t>
+  </si>
+  <si>
+    <t>asdf33@nate.com</t>
+  </si>
+  <si>
+    <t>asdf34@nate.com</t>
+  </si>
+  <si>
+    <t>asdf35@nate.com</t>
+  </si>
+  <si>
+    <t>asdf36@nate.com</t>
+  </si>
+  <si>
+    <t>asdf37@nate.com</t>
+  </si>
+  <si>
+    <t>asdf38@nate.com</t>
+  </si>
+  <si>
+    <t>asdf39@nate.com</t>
+  </si>
+  <si>
+    <t>asdf40@nate.com</t>
+  </si>
+  <si>
+    <t>asdf41@nate.com</t>
+  </si>
+  <si>
+    <t>asdf42@nate.com</t>
+  </si>
+  <si>
+    <t>asdf43@nate.com</t>
+  </si>
+  <si>
+    <t>asdf44@nate.com</t>
+  </si>
+  <si>
+    <t>asdf45@nate.com</t>
+  </si>
+  <si>
+    <t>asdf46@nate.com</t>
+  </si>
+  <si>
+    <t>asdf47@nate.com</t>
+  </si>
+  <si>
+    <t>asdf48@nate.com</t>
+  </si>
+  <si>
+    <t>asdf49@nate.com</t>
+  </si>
+  <si>
+    <t>asdf50@nate.com</t>
+  </si>
+  <si>
+    <t>asdf51@nate.com</t>
+  </si>
+  <si>
+    <t>asdf52@nate.com</t>
+  </si>
+  <si>
+    <t>asdf53@nate.com</t>
+  </si>
+  <si>
+    <t>asdf54@nate.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -145,6 +302,14 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -185,21 +350,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -477,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -496,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -536,93 +708,513 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>20</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>25</v>
       </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B42" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B43" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B44" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B45" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B47" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B48" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B50" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B51" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B52" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B53" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B54" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B55" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{281C67F7-BAB8-4A3E-8073-9A4952D65AF0}"/>
+    <hyperlink ref="B3:B55" r:id="rId2" display="asdf01@nate.com" xr:uid="{84A1BB58-0CC1-4C53-8D51-49E9150A334C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>